--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -47756,13 +47756,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -47756,13 +47756,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -47770,13 +47770,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -20057,7 +20057,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>Component</t>
   </si>
@@ -20167,7 +20167,7 @@
     <t>CITESeq</t>
   </si>
   <si>
-    <t>data dictionary</t>
+    <t>cell coordinates</t>
   </si>
   <si>
     <t>bim</t>
@@ -20185,7 +20185,7 @@
     <t>CosMX</t>
   </si>
   <si>
-    <t>file manifest</t>
+    <t>data dictionary</t>
   </si>
   <si>
     <t>csv</t>
@@ -20200,10 +20200,10 @@
     <t>CyTOF</t>
   </si>
   <si>
-    <t>medication</t>
+    <t>file manifest</t>
   </si>
   <si>
-    <t>docx</t>
+    <t>czi</t>
   </si>
   <si>
     <t>immunostaining</t>
@@ -20215,10 +20215,10 @@
     <t>feature barcode sequencing</t>
   </si>
   <si>
-    <t>phenotype</t>
+    <t>medication</t>
   </si>
   <si>
-    <t>dose</t>
+    <t>docx</t>
   </si>
   <si>
     <t>lipidomics</t>
@@ -20230,70 +20230,85 @@
     <t>flow cytometry</t>
   </si>
   <si>
-    <t>protocol</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>metabolomics</t>
+  </si>
+  <si>
+    <t>GenePS SeqFISH</t>
+  </si>
+  <si>
+    <t>phenotype</t>
   </si>
   <si>
     <t>erate</t>
   </si>
   <si>
-    <t>metabolomics</t>
+    <t>microbiome</t>
   </si>
   <si>
     <t>H&amp;E</t>
   </si>
   <si>
-    <t>single-cell metadata</t>
+    <t>protocol</t>
   </si>
   <si>
     <t>fam</t>
   </si>
   <si>
-    <t>microbiome</t>
+    <t>multimodal</t>
   </si>
   <si>
     <t>imaging mass cytometry</t>
   </si>
   <si>
-    <t>target panel</t>
+    <t>single-cell metadata</t>
   </si>
   <si>
     <t>fastq</t>
   </si>
   <si>
-    <t>multimodal</t>
+    <t>proteomics</t>
   </si>
   <si>
     <t>imaging mass spectrometry</t>
   </si>
   <si>
-    <t>template</t>
+    <t>target panel</t>
   </si>
   <si>
     <t>fcs</t>
   </si>
   <si>
-    <t>proteomics</t>
+    <t>transcriptomics</t>
   </si>
   <si>
     <t>kiloplex</t>
   </si>
   <si>
-    <t>user manual</t>
+    <t>template</t>
   </si>
   <si>
     <t>geojson</t>
   </si>
   <si>
-    <t>transcriptomics</t>
+    <t>LC-MS/MS</t>
   </si>
   <si>
-    <t>LC-MS/MS</t>
+    <t>tissue multiarray map</t>
   </si>
   <si>
     <t>h5</t>
   </si>
   <si>
     <t>multiplexed ELISA</t>
+  </si>
+  <si>
+    <t>user manual</t>
   </si>
   <si>
     <t>h5ad</t>
@@ -20308,85 +20323,94 @@
     <t>Olink Explore HT</t>
   </si>
   <si>
-    <t>mtx</t>
+    <t>mcd</t>
   </si>
   <si>
     <t>Olink Flex</t>
   </si>
   <si>
-    <t>parquet</t>
+    <t>mtx</t>
   </si>
   <si>
     <t>Olink Focus</t>
   </si>
   <si>
-    <t>pdf</t>
+    <t>parquet</t>
   </si>
   <si>
     <t>Olink Reveal</t>
   </si>
   <si>
-    <t>rds</t>
+    <t>pdf</t>
   </si>
   <si>
     <t>Olink Target 48</t>
   </si>
   <si>
-    <t>rec</t>
+    <t>rds</t>
   </si>
   <si>
     <t>Olink Target 96</t>
   </si>
   <si>
-    <t>tbi</t>
+    <t>rec</t>
   </si>
   <si>
     <t>RNASeq</t>
   </si>
   <si>
-    <t>tgz</t>
+    <t>svs</t>
   </si>
   <si>
     <t>scRNASeq</t>
   </si>
   <si>
-    <t>tsv</t>
+    <t>tbi</t>
   </si>
   <si>
     <t>scVDJSeq</t>
   </si>
   <si>
-    <t>txt</t>
+    <t>tgz</t>
   </si>
   <si>
     <t>serial IHC</t>
   </si>
   <si>
-    <t>vcf</t>
+    <t>tsv</t>
   </si>
   <si>
     <t>snATACSeq</t>
   </si>
   <si>
-    <t>xls</t>
+    <t>txt</t>
   </si>
   <si>
     <t>SNP array</t>
   </si>
   <si>
-    <t>xlsx</t>
+    <t>vcf</t>
   </si>
   <si>
     <t>snRNASeq</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>xls</t>
   </si>
   <si>
     <t>SomaScan</t>
   </si>
   <si>
+    <t>xlsx</t>
+  </si>
+  <si>
     <t>VDJSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>Visium</t>
   </si>
   <si>
     <t>WES</t>
@@ -47770,34 +47794,34 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="B2:B1000">
-      <formula1>Sheet2!$B$2:$B$29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
-      <formula1>Sheet2!$J$2:$J$12</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
+      <formula1>Sheet2!$J$2:$J$15</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="B2:B1000">
+      <formula1>Sheet2!$B$2:$B$32</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -48071,153 +48095,181 @@
       <c r="H13" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="H30" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="H31" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="H32" s="7" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="33">
       <c r="H33" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="H34" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="H35" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -20057,7 +20057,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>Component</t>
   </si>
@@ -20299,7 +20299,7 @@
     <t>LC-MS/MS</t>
   </si>
   <si>
-    <t>tissue multiarray map</t>
+    <t>tissue microarray map</t>
   </si>
   <si>
     <t>h5</t>
@@ -20308,13 +20308,16 @@
     <t>multiplexed ELISA</t>
   </si>
   <si>
-    <t>user manual</t>
+    <t>tissue multiarray map</t>
   </si>
   <si>
     <t>h5ad</t>
   </si>
   <si>
     <t>NULISA</t>
+  </si>
+  <si>
+    <t>user manual</t>
   </si>
   <si>
     <t>info</t>
@@ -47794,13 +47797,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47811,14 +47814,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
-      <formula1>Sheet2!$J$2:$J$15</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
+      <formula1>Sheet2!$J$2:$J$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="B2:B1000">
       <formula1>Sheet2!$B$2:$B$32</formula1>
@@ -48128,148 +48131,151 @@
       <c r="H16" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="H33" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="H34" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="H35" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -47797,13 +47797,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BDMMetadataFileAnnotations.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotations.xlsx
@@ -47797,13 +47797,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
